--- a/testdata/Data.xlsx
+++ b/testdata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\SeleniumFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1A34C-75B6-4AF8-B5A1-9FE0C6523B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5613D60-6DD6-4B7B-875E-5FC22509E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="669" xr2:uid="{BEF7A82F-5605-4FA0-939C-5E906916324A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>deepika.avula@gmail.com</t>
+  </si>
+  <si>
+    <t>prakash.ogeti@gmail.com</t>
+  </si>
+  <si>
+    <t>prakash123</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2825741-BC56-43B6-B92D-C41E8791DC66}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,11 +459,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8C00964B-D340-465A-959A-1429F5853470}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{2EBECD47-7068-403E-B873-FEB100256F56}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{64046DDE-282A-4039-8460-D9938001FB79}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{6760D2A1-F97C-4D92-897A-DC906776209B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
